--- a/DATA/fragmentos.xlsx
+++ b/DATA/fragmentos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="dset" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13504" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13505" uniqueCount="247">
   <si>
     <t xml:space="preserve">Coccion</t>
   </si>
@@ -513,6 +513,9 @@
   </si>
   <si>
     <t xml:space="preserve">tipo de variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escala</t>
   </si>
   <si>
     <t xml:space="preserve">Encode_values</t>
@@ -1103,19 +1106,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:T579"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A191" activeCellId="0" sqref="A191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="20.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1366,7 +1370,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>29</v>
       </c>
@@ -1428,7 +1432,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>29</v>
       </c>
@@ -1552,7 +1556,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>20</v>
       </c>
@@ -1614,7 +1618,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>20</v>
       </c>
@@ -1676,7 +1680,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>29</v>
       </c>
@@ -1862,7 +1866,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>29</v>
       </c>
@@ -1924,7 +1928,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>29</v>
       </c>
@@ -2048,7 +2052,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>29</v>
       </c>
@@ -2420,7 +2424,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>20</v>
       </c>
@@ -2482,7 +2486,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>20</v>
       </c>
@@ -2544,7 +2548,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>29</v>
       </c>
@@ -2606,7 +2610,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>20</v>
       </c>
@@ -2854,7 +2858,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>29</v>
       </c>
@@ -2916,7 +2920,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>29</v>
       </c>
@@ -2978,7 +2982,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>29</v>
       </c>
@@ -3102,7 +3106,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>20</v>
       </c>
@@ -3412,7 +3416,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>20</v>
       </c>
@@ -3598,7 +3602,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>29</v>
       </c>
@@ -3660,7 +3664,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>29</v>
       </c>
@@ -3722,7 +3726,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>20</v>
       </c>
@@ -3784,7 +3788,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>29</v>
       </c>
@@ -3846,7 +3850,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>20</v>
       </c>
@@ -3908,7 +3912,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>20</v>
       </c>
@@ -3970,7 +3974,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>20</v>
       </c>
@@ -4032,7 +4036,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>29</v>
       </c>
@@ -4156,7 +4160,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>29</v>
       </c>
@@ -4218,7 +4222,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>29</v>
       </c>
@@ -4280,7 +4284,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>29</v>
       </c>
@@ -4404,7 +4408,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>29</v>
       </c>
@@ -4528,7 +4532,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>20</v>
       </c>
@@ -4652,7 +4656,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>29</v>
       </c>
@@ -4714,7 +4718,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>29</v>
       </c>
@@ -4776,7 +4780,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>29</v>
       </c>
@@ -4838,7 +4842,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>29</v>
       </c>
@@ -4900,7 +4904,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>20</v>
       </c>
@@ -5086,7 +5090,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>29</v>
       </c>
@@ -5396,7 +5400,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>20</v>
       </c>
@@ -5458,7 +5462,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>29</v>
       </c>
@@ -5520,7 +5524,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>29</v>
       </c>
@@ -5644,7 +5648,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>20</v>
       </c>
@@ -5892,7 +5896,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>20</v>
       </c>
@@ -6512,7 +6516,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>29</v>
       </c>
@@ -6760,7 +6764,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
         <v>29</v>
       </c>
@@ -6884,7 +6888,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>20</v>
       </c>
@@ -6946,7 +6950,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
         <v>29</v>
       </c>
@@ -7380,7 +7384,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
         <v>29</v>
       </c>
@@ -7566,7 +7570,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
         <v>29</v>
       </c>
@@ -7628,7 +7632,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
         <v>20</v>
       </c>
@@ -7690,7 +7694,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
         <v>20</v>
       </c>
@@ -7814,7 +7818,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
         <v>29</v>
       </c>
@@ -7876,7 +7880,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
         <v>29</v>
       </c>
@@ -8186,7 +8190,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
         <v>29</v>
       </c>
@@ -8248,7 +8252,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
         <v>29</v>
       </c>
@@ -8310,7 +8314,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>29</v>
       </c>
@@ -8372,7 +8376,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
         <v>29</v>
       </c>
@@ -8620,7 +8624,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
         <v>20</v>
       </c>
@@ -8682,7 +8686,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
         <v>20</v>
       </c>
@@ -8744,7 +8748,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
         <v>20</v>
       </c>
@@ -8806,7 +8810,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
         <v>29</v>
       </c>
@@ -8992,7 +8996,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
         <v>20</v>
       </c>
@@ -9116,7 +9120,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
         <v>29</v>
       </c>
@@ -9178,7 +9182,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
         <v>20</v>
       </c>
@@ -9240,7 +9244,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
         <v>20</v>
       </c>
@@ -10914,7 +10918,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
         <v>20</v>
       </c>
@@ -10976,7 +10980,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
         <v>29</v>
       </c>
@@ -11410,7 +11414,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
         <v>20</v>
       </c>
@@ -11472,7 +11476,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
         <v>20</v>
       </c>
@@ -11534,7 +11538,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
         <v>20</v>
       </c>
@@ -11596,7 +11600,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
         <v>20</v>
       </c>
@@ -12030,7 +12034,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
         <v>20</v>
       </c>
@@ -12092,7 +12096,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
         <v>29</v>
       </c>
@@ -12154,7 +12158,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
         <v>29</v>
       </c>
@@ -12216,7 +12220,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
         <v>29</v>
       </c>
@@ -12278,7 +12282,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
         <v>29</v>
       </c>
@@ -12340,7 +12344,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
         <v>29</v>
       </c>
@@ -12464,7 +12468,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
         <v>29</v>
       </c>
@@ -12526,7 +12530,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
         <v>29</v>
       </c>
@@ -12588,7 +12592,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
         <v>29</v>
       </c>
@@ -12836,7 +12840,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
         <v>20</v>
       </c>
@@ -12898,7 +12902,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
         <v>20</v>
       </c>
@@ -12960,7 +12964,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
         <v>20</v>
       </c>
@@ -13022,7 +13026,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
         <v>20</v>
       </c>
@@ -13146,7 +13150,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
         <v>29</v>
       </c>
@@ -13208,7 +13212,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
         <v>20</v>
       </c>
@@ -13270,7 +13274,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
         <v>20</v>
       </c>
@@ -13332,7 +13336,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
         <v>20</v>
       </c>
@@ -13394,7 +13398,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
         <v>20</v>
       </c>
@@ -13704,7 +13708,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
         <v>29</v>
       </c>
@@ -13828,7 +13832,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
         <v>29</v>
       </c>
@@ -13890,7 +13894,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
         <v>29</v>
       </c>
@@ -14014,7 +14018,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
         <v>29</v>
       </c>
@@ -14262,7 +14266,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
         <v>20</v>
       </c>
@@ -14324,7 +14328,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
         <v>29</v>
       </c>
@@ -14448,7 +14452,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
         <v>29</v>
       </c>
@@ -14696,7 +14700,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
         <v>29</v>
       </c>
@@ -14758,7 +14762,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
         <v>29</v>
       </c>
@@ -14820,7 +14824,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
         <v>29</v>
       </c>
@@ -15006,7 +15010,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
         <v>29</v>
       </c>
@@ -15130,7 +15134,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
         <v>29</v>
       </c>
@@ -15750,7 +15754,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
         <v>29</v>
       </c>
@@ -15936,7 +15940,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
         <v>20</v>
       </c>
@@ -15998,7 +16002,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
         <v>29</v>
       </c>
@@ -16308,7 +16312,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
         <v>29</v>
       </c>
@@ -16680,7 +16684,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
         <v>29</v>
       </c>
@@ -16742,7 +16746,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
         <v>29</v>
       </c>
@@ -16804,7 +16808,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
         <v>29</v>
       </c>
@@ -16866,7 +16870,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
         <v>29</v>
       </c>
@@ -16928,7 +16932,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
         <v>29</v>
       </c>
@@ -16990,7 +16994,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
         <v>29</v>
       </c>
@@ -17052,7 +17056,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
         <v>29</v>
       </c>
@@ -17114,7 +17118,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
         <v>29</v>
       </c>
@@ -17176,7 +17180,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
         <v>29</v>
       </c>
@@ -17424,7 +17428,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
         <v>29</v>
       </c>
@@ -17672,7 +17676,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
         <v>29</v>
       </c>
@@ -17734,7 +17738,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
         <v>20</v>
       </c>
@@ -18106,7 +18110,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
         <v>29</v>
       </c>
@@ -18168,7 +18172,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
         <v>29</v>
       </c>
@@ -18230,7 +18234,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
         <v>29</v>
       </c>
@@ -18788,7 +18792,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
         <v>29</v>
       </c>
@@ -18912,7 +18916,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
         <v>29</v>
       </c>
@@ -19222,7 +19226,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
         <v>29</v>
       </c>
@@ -19718,7 +19722,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
         <v>29</v>
       </c>
@@ -20214,7 +20218,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
         <v>29</v>
       </c>
@@ -20338,7 +20342,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
         <v>29</v>
       </c>
@@ -20772,7 +20776,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
         <v>20</v>
       </c>
@@ -20834,7 +20838,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
         <v>20</v>
       </c>
@@ -21392,7 +21396,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
         <v>29</v>
       </c>
@@ -21888,7 +21892,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
         <v>29</v>
       </c>
@@ -21950,7 +21954,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="s">
         <v>29</v>
       </c>
@@ -22446,7 +22450,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
         <v>29</v>
       </c>
@@ -22570,7 +22574,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
         <v>29</v>
       </c>
@@ -22632,7 +22636,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
         <v>29</v>
       </c>
@@ -22880,7 +22884,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
         <v>29</v>
       </c>
@@ -22942,7 +22946,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="s">
         <v>29</v>
       </c>
@@ -23004,7 +23008,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="s">
         <v>29</v>
       </c>
@@ -23190,7 +23194,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="s">
         <v>29</v>
       </c>
@@ -23252,7 +23256,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="s">
         <v>29</v>
       </c>
@@ -23314,7 +23318,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="s">
         <v>29</v>
       </c>
@@ -23376,7 +23380,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="s">
         <v>29</v>
       </c>
@@ -23438,7 +23442,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="s">
         <v>29</v>
       </c>
@@ -23562,7 +23566,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
         <v>20</v>
       </c>
@@ -23624,7 +23628,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="s">
         <v>29</v>
       </c>
@@ -23686,7 +23690,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
         <v>20</v>
       </c>
@@ -23748,7 +23752,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="s">
         <v>29</v>
       </c>
@@ -23810,7 +23814,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="s">
         <v>29</v>
       </c>
@@ -23872,7 +23876,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
         <v>29</v>
       </c>
@@ -23996,7 +24000,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="s">
         <v>29</v>
       </c>
@@ -24058,7 +24062,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="s">
         <v>29</v>
       </c>
@@ -24120,7 +24124,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="s">
         <v>29</v>
       </c>
@@ -24182,7 +24186,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
         <v>29</v>
       </c>
@@ -24306,7 +24310,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="s">
         <v>29</v>
       </c>
@@ -24368,7 +24372,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
         <v>29</v>
       </c>
@@ -24492,7 +24496,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="s">
         <v>29</v>
       </c>
@@ -24554,7 +24558,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="s">
         <v>29</v>
       </c>
@@ -24802,7 +24806,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="s">
         <v>29</v>
       </c>
@@ -24864,7 +24868,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
         <v>29</v>
       </c>
@@ -25050,7 +25054,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="387" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="s">
         <v>29</v>
       </c>
@@ -25298,7 +25302,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="391" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="s">
         <v>29</v>
       </c>
@@ -25422,7 +25426,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="s">
         <v>29</v>
       </c>
@@ -26104,7 +26108,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="404" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="s">
         <v>29</v>
       </c>
@@ -26166,7 +26170,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="405" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="0" t="s">
         <v>29</v>
       </c>
@@ -26228,7 +26232,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="406" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="s">
         <v>29</v>
       </c>
@@ -26290,7 +26294,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="407" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="0" t="s">
         <v>20</v>
       </c>
@@ -26476,7 +26480,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="410" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="0" t="s">
         <v>29</v>
       </c>
@@ -27468,7 +27472,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="426" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="s">
         <v>20</v>
       </c>
@@ -27592,7 +27596,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="428" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="0" t="s">
         <v>29</v>
       </c>
@@ -28336,7 +28340,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="440" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="s">
         <v>29</v>
       </c>
@@ -28398,7 +28402,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="441" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="s">
         <v>29</v>
       </c>
@@ -28460,7 +28464,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="442" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="0" t="s">
         <v>29</v>
       </c>
@@ -28584,7 +28588,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="444" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="0" t="s">
         <v>20</v>
       </c>
@@ -28646,7 +28650,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="445" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="s">
         <v>20</v>
       </c>
@@ -28708,7 +28712,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="446" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="0" t="s">
         <v>20</v>
       </c>
@@ -29390,7 +29394,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="457" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="0" t="s">
         <v>29</v>
       </c>
@@ -29700,7 +29704,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="462" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="0" t="s">
         <v>20</v>
       </c>
@@ -29762,7 +29766,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="463" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="0" t="s">
         <v>20</v>
       </c>
@@ -29824,7 +29828,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="464" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="0" t="s">
         <v>20</v>
       </c>
@@ -29886,7 +29890,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="465" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="0" t="s">
         <v>20</v>
       </c>
@@ -29948,7 +29952,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="466" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="0" t="s">
         <v>20</v>
       </c>
@@ -30010,7 +30014,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="467" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="0" t="s">
         <v>20</v>
       </c>
@@ -30072,7 +30076,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="468" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="0" t="s">
         <v>20</v>
       </c>
@@ -30134,7 +30138,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="469" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="0" t="s">
         <v>20</v>
       </c>
@@ -30196,7 +30200,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="470" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="0" t="s">
         <v>20</v>
       </c>
@@ -30258,7 +30262,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="471" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="0" t="s">
         <v>20</v>
       </c>
@@ -30320,7 +30324,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="472" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="0" t="s">
         <v>20</v>
       </c>
@@ -30382,7 +30386,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="473" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="0" t="s">
         <v>20</v>
       </c>
@@ -30444,7 +30448,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="474" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="0" t="s">
         <v>20</v>
       </c>
@@ -30506,7 +30510,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="475" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="0" t="s">
         <v>20</v>
       </c>
@@ -30568,7 +30572,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="476" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="0" t="s">
         <v>20</v>
       </c>
@@ -30630,7 +30634,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="477" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="0" t="s">
         <v>20</v>
       </c>
@@ -30692,7 +30696,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="478" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="0" t="s">
         <v>20</v>
       </c>
@@ -30754,7 +30758,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="479" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="0" t="s">
         <v>20</v>
       </c>
@@ -30816,7 +30820,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="480" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="0" t="s">
         <v>20</v>
       </c>
@@ -30878,7 +30882,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="481" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="0" t="s">
         <v>20</v>
       </c>
@@ -30940,7 +30944,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="482" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="0" t="s">
         <v>20</v>
       </c>
@@ -31560,7 +31564,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="492" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="0" t="s">
         <v>29</v>
       </c>
@@ -32366,7 +32370,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="505" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="0" t="s">
         <v>20</v>
       </c>
@@ -32986,7 +32990,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="515" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="0" t="s">
         <v>20</v>
       </c>
@@ -33048,7 +33052,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="516" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="0" t="s">
         <v>20</v>
       </c>
@@ -33110,7 +33114,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="517" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="0" t="s">
         <v>29</v>
       </c>
@@ -33172,7 +33176,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="518" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="0" t="s">
         <v>20</v>
       </c>
@@ -33234,7 +33238,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="519" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="0" t="s">
         <v>29</v>
       </c>
@@ -33296,7 +33300,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="520" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="0" t="s">
         <v>29</v>
       </c>
@@ -33358,7 +33362,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="521" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="0" t="s">
         <v>29</v>
       </c>
@@ -33668,7 +33672,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="526" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="0" t="s">
         <v>20</v>
       </c>
@@ -33978,7 +33982,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="531" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="0" t="s">
         <v>20</v>
       </c>
@@ -34040,7 +34044,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="532" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="0" t="s">
         <v>20</v>
       </c>
@@ -34102,7 +34106,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="533" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="0" t="s">
         <v>20</v>
       </c>
@@ -34164,7 +34168,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="534" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="0" t="s">
         <v>20</v>
       </c>
@@ -34226,7 +34230,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="535" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="0" t="s">
         <v>20</v>
       </c>
@@ -34412,7 +34416,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="538" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="0" t="s">
         <v>29</v>
       </c>
@@ -34474,7 +34478,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="539" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="0" t="s">
         <v>20</v>
       </c>
@@ -34536,7 +34540,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="540" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="0" t="s">
         <v>20</v>
       </c>
@@ -34598,7 +34602,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="541" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="0" t="s">
         <v>20</v>
       </c>
@@ -34660,7 +34664,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="542" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="0" t="s">
         <v>20</v>
       </c>
@@ -34722,7 +34726,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="543" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="0" t="s">
         <v>29</v>
       </c>
@@ -34908,7 +34912,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="546" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="0" t="s">
         <v>29</v>
       </c>
@@ -35156,7 +35160,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="550" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="0" t="s">
         <v>29</v>
       </c>
@@ -35218,7 +35222,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="551" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="0" t="s">
         <v>20</v>
       </c>
@@ -35280,7 +35284,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="552" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="0" t="s">
         <v>29</v>
       </c>
@@ -35342,7 +35346,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="553" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="0" t="s">
         <v>29</v>
       </c>
@@ -36086,7 +36090,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="565" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="0" t="s">
         <v>29</v>
       </c>
@@ -36520,7 +36524,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="572" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="0" t="s">
         <v>29</v>
       </c>
@@ -36582,7 +36586,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="573" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="0" t="s">
         <v>29</v>
       </c>
@@ -36644,7 +36648,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="574" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="0" t="s">
         <v>29</v>
       </c>
@@ -36706,7 +36710,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="575" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="0" t="s">
         <v>29</v>
       </c>
@@ -36768,7 +36772,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="576" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="0" t="s">
         <v>29</v>
       </c>
@@ -37017,13 +37021,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T579">
-    <filterColumn colId="8">
-      <customFilters and="true">
-        <customFilter operator="equal" val="Fino"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:T579"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -37043,7 +37041,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37055,9 +37053,11 @@
       <c r="B1" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="D1" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37085,22 +37085,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37108,31 +37108,31 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37140,16 +37140,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37157,19 +37157,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37177,10 +37177,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37188,10 +37188,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37199,22 +37199,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37222,22 +37222,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37245,19 +37245,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37265,10 +37265,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37276,22 +37276,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37299,40 +37299,40 @@
         <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37340,37 +37340,37 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37378,19 +37378,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37398,22 +37398,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37421,10 +37421,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37432,16 +37432,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37449,37 +37449,36 @@
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:C1"/>
+  <mergeCells count="1">
     <mergeCell ref="D1:G1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -37494,25 +37493,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:U579"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D600" activeCellId="0" sqref="D600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="16.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="15.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -37577,7 +37578,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
@@ -37642,7 +37643,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -37707,7 +37708,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -37772,7 +37773,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -37835,9 +37836,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -37902,7 +37903,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -37967,7 +37968,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1</v>
@@ -38032,7 +38033,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -38097,7 +38098,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -38162,7 +38163,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1</v>
@@ -38225,9 +38226,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
@@ -38292,7 +38293,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -38357,7 +38358,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -38422,7 +38423,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -38487,7 +38488,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -38552,7 +38553,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1</v>
@@ -38617,7 +38618,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1</v>
@@ -38682,7 +38683,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -38747,7 +38748,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -38812,7 +38813,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>1</v>
@@ -38877,7 +38878,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1</v>
@@ -38942,7 +38943,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>1</v>
@@ -39007,7 +39008,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -39072,7 +39073,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>1</v>
@@ -39137,7 +39138,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -39202,7 +39203,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -39267,7 +39268,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -39332,7 +39333,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -39397,7 +39398,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -39462,7 +39463,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -39527,7 +39528,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -39592,7 +39593,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>1</v>
@@ -39657,7 +39658,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -39722,7 +39723,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -39787,7 +39788,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -39852,7 +39853,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>1</v>
@@ -39917,7 +39918,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>1</v>
@@ -39982,7 +39983,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -40047,7 +40048,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -40112,7 +40113,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -40177,7 +40178,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -40242,7 +40243,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>1</v>
@@ -40307,7 +40308,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -40372,7 +40373,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>1</v>
@@ -40437,7 +40438,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>1</v>
@@ -40502,7 +40503,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>1</v>
@@ -40567,7 +40568,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -40632,7 +40633,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>1</v>
@@ -40697,7 +40698,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0</v>
@@ -40762,7 +40763,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>0</v>
@@ -40827,7 +40828,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0</v>
@@ -40892,7 +40893,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>0</v>
@@ -40957,7 +40958,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>0</v>
@@ -41022,7 +41023,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>0</v>
@@ -41087,7 +41088,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>1</v>
@@ -41152,7 +41153,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>1</v>
@@ -41217,7 +41218,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>0</v>
@@ -41282,7 +41283,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>0</v>
@@ -41347,7 +41348,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>0</v>
@@ -41412,7 +41413,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>0</v>
@@ -41477,7 +41478,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>1</v>
@@ -41542,7 +41543,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>1</v>
@@ -41607,7 +41608,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>0</v>
@@ -41672,7 +41673,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>0</v>
@@ -41737,7 +41738,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>0</v>
@@ -41802,7 +41803,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>1</v>
@@ -41867,7 +41868,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>1</v>
@@ -41932,7 +41933,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>0</v>
@@ -41997,7 +41998,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>1</v>
@@ -42062,7 +42063,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>0</v>
@@ -42127,7 +42128,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>0</v>
@@ -42192,7 +42193,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>0</v>
@@ -42257,7 +42258,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>1</v>
@@ -42322,7 +42323,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>1</v>
@@ -42387,7 +42388,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>1</v>
@@ -42452,7 +42453,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>0</v>
@@ -42517,7 +42518,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>1</v>
@@ -42582,7 +42583,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>0</v>
@@ -42647,7 +42648,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>1</v>
@@ -42712,7 +42713,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>1</v>
@@ -42777,7 +42778,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>0</v>
@@ -42842,7 +42843,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>1</v>
@@ -42907,7 +42908,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>0</v>
@@ -42972,7 +42973,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>0</v>
@@ -43037,7 +43038,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>0</v>
@@ -43102,7 +43103,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>1</v>
@@ -43167,7 +43168,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>0</v>
@@ -43232,7 +43233,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>0</v>
@@ -43297,7 +43298,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>1</v>
@@ -43362,7 +43363,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>0</v>
@@ -43427,7 +43428,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>0</v>
@@ -43492,7 +43493,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>0</v>
@@ -43557,7 +43558,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>1</v>
@@ -43622,7 +43623,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>0</v>
@@ -43687,7 +43688,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>0</v>
@@ -43752,7 +43753,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>0</v>
@@ -43817,7 +43818,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>0</v>
@@ -43882,7 +43883,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>0</v>
@@ -43947,7 +43948,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>0</v>
@@ -44012,7 +44013,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>0</v>
@@ -44077,7 +44078,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>0</v>
@@ -44142,7 +44143,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>0</v>
@@ -44207,7 +44208,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>0</v>
@@ -44272,7 +44273,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>0</v>
@@ -44337,7 +44338,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>1</v>
@@ -44402,7 +44403,7 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>1</v>
@@ -44467,7 +44468,7 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>1</v>
@@ -44532,7 +44533,7 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>0</v>
@@ -44597,7 +44598,7 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>0</v>
@@ -44662,7 +44663,7 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>1</v>
@@ -44727,7 +44728,7 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>1</v>
@@ -44790,9 +44791,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>1</v>
@@ -44855,9 +44856,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>1</v>
@@ -44922,7 +44923,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>0</v>
@@ -44987,7 +44988,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>0</v>
@@ -45052,7 +45053,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>0</v>
@@ -45117,7 +45118,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>0</v>
@@ -45182,7 +45183,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>1</v>
@@ -45247,7 +45248,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>1</v>
@@ -45312,7 +45313,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>1</v>
@@ -45377,7 +45378,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>1</v>
@@ -45442,7 +45443,7 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>1</v>
@@ -45507,7 +45508,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>1</v>
@@ -45572,7 +45573,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>0</v>
@@ -45637,7 +45638,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>0</v>
@@ -45702,7 +45703,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>0</v>
@@ -45767,7 +45768,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>1</v>
@@ -45832,7 +45833,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>0</v>
@@ -45897,7 +45898,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>0</v>
@@ -45962,7 +45963,7 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>1</v>
@@ -46027,7 +46028,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>1</v>
@@ -46090,9 +46091,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>0</v>
@@ -46157,7 +46158,7 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>0</v>
@@ -46222,7 +46223,7 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>1</v>
@@ -46287,7 +46288,7 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>1</v>
@@ -46352,7 +46353,7 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>1</v>
@@ -46417,7 +46418,7 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>1</v>
@@ -46482,7 +46483,7 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>1</v>
@@ -46547,7 +46548,7 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>1</v>
@@ -46612,7 +46613,7 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>1</v>
@@ -46677,7 +46678,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>1</v>
@@ -46742,7 +46743,7 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>1</v>
@@ -46807,7 +46808,7 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>1</v>
@@ -46872,7 +46873,7 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>1</v>
@@ -46937,7 +46938,7 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>1</v>
@@ -47002,7 +47003,7 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>1</v>
@@ -47067,7 +47068,7 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>1</v>
@@ -47132,7 +47133,7 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>1</v>
@@ -47197,7 +47198,7 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>1</v>
@@ -47262,7 +47263,7 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>1</v>
@@ -47327,7 +47328,7 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>1</v>
@@ -47392,7 +47393,7 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>1</v>
@@ -47457,7 +47458,7 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>1</v>
@@ -47522,7 +47523,7 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B155" s="0" t="n">
         <v>1</v>
@@ -47587,7 +47588,7 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>1</v>
@@ -47652,7 +47653,7 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B157" s="0" t="n">
         <v>1</v>
@@ -47717,7 +47718,7 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>1</v>
@@ -47782,7 +47783,7 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>1</v>
@@ -47847,7 +47848,7 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>0</v>
@@ -47912,7 +47913,7 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B161" s="0" t="n">
         <v>0</v>
@@ -47977,7 +47978,7 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B162" s="0" t="n">
         <v>0</v>
@@ -48042,7 +48043,7 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B163" s="0" t="n">
         <v>1</v>
@@ -48107,7 +48108,7 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B164" s="0" t="n">
         <v>1</v>
@@ -48172,7 +48173,7 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B165" s="0" t="n">
         <v>0</v>
@@ -48237,7 +48238,7 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B166" s="0" t="n">
         <v>1</v>
@@ -48302,7 +48303,7 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B167" s="0" t="n">
         <v>1</v>
@@ -48367,7 +48368,7 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B168" s="0" t="n">
         <v>1</v>
@@ -48432,7 +48433,7 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>1</v>
@@ -48497,7 +48498,7 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B170" s="0" t="n">
         <v>1</v>
@@ -48562,7 +48563,7 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B171" s="0" t="n">
         <v>0</v>
@@ -48627,7 +48628,7 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B172" s="0" t="n">
         <v>0</v>
@@ -48692,7 +48693,7 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B173" s="0" t="n">
         <v>0</v>
@@ -48757,7 +48758,7 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B174" s="0" t="n">
         <v>1</v>
@@ -48822,7 +48823,7 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B175" s="0" t="n">
         <v>0</v>
@@ -48887,7 +48888,7 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B176" s="0" t="n">
         <v>0</v>
@@ -48952,7 +48953,7 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B177" s="0" t="n">
         <v>1</v>
@@ -49017,7 +49018,7 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B178" s="0" t="n">
         <v>0</v>
@@ -49082,7 +49083,7 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B179" s="0" t="n">
         <v>0</v>
@@ -49147,7 +49148,7 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B180" s="0" t="n">
         <v>0</v>
@@ -49212,7 +49213,7 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B181" s="0" t="n">
         <v>0</v>
@@ -49277,7 +49278,7 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B182" s="0" t="n">
         <v>0</v>
@@ -49342,7 +49343,7 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B183" s="0" t="n">
         <v>0</v>
@@ -49407,7 +49408,7 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B184" s="0" t="n">
         <v>0</v>
@@ -49472,7 +49473,7 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B185" s="0" t="n">
         <v>0</v>
@@ -49537,7 +49538,7 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B186" s="0" t="n">
         <v>0</v>
@@ -49602,7 +49603,7 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B187" s="0" t="n">
         <v>0</v>
@@ -49667,7 +49668,7 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B188" s="0" t="n">
         <v>0</v>
@@ -49732,7 +49733,7 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B189" s="0" t="n">
         <v>0</v>
@@ -49797,7 +49798,7 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B190" s="0" t="n">
         <v>1</v>
@@ -49860,9 +49861,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B191" s="0" t="n">
         <v>1</v>
@@ -49927,7 +49928,7 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B192" s="0" t="n">
         <v>1</v>
@@ -49992,7 +49993,7 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B193" s="0" t="n">
         <v>1</v>
@@ -50057,7 +50058,7 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B194" s="0" t="n">
         <v>1</v>
@@ -50122,7 +50123,7 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B195" s="0" t="n">
         <v>0</v>
@@ -50187,7 +50188,7 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B196" s="0" t="n">
         <v>1</v>
@@ -50252,7 +50253,7 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B197" s="0" t="n">
         <v>1</v>
@@ -50317,7 +50318,7 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B198" s="0" t="n">
         <v>1</v>
@@ -50382,7 +50383,7 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B199" s="0" t="n">
         <v>1</v>
@@ -50447,7 +50448,7 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B200" s="0" t="n">
         <v>1</v>
@@ -50512,7 +50513,7 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B201" s="0" t="n">
         <v>1</v>
@@ -50577,7 +50578,7 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B202" s="0" t="n">
         <v>1</v>
@@ -50642,7 +50643,7 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B203" s="0" t="n">
         <v>1</v>
@@ -50707,7 +50708,7 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B204" s="0" t="n">
         <v>0</v>
@@ -50772,7 +50773,7 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B205" s="0" t="n">
         <v>0</v>
@@ -50837,7 +50838,7 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B206" s="0" t="n">
         <v>0</v>
@@ -50902,7 +50903,7 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B207" s="0" t="n">
         <v>0</v>
@@ -50967,7 +50968,7 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B208" s="0" t="n">
         <v>0</v>
@@ -51032,7 +51033,7 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B209" s="0" t="n">
         <v>0</v>
@@ -51097,7 +51098,7 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B210" s="0" t="n">
         <v>0</v>
@@ -51162,7 +51163,7 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B211" s="0" t="n">
         <v>0</v>
@@ -51227,7 +51228,7 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B212" s="0" t="n">
         <v>0</v>
@@ -51292,7 +51293,7 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B213" s="0" t="n">
         <v>1</v>
@@ -51357,7 +51358,7 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B214" s="0" t="n">
         <v>0</v>
@@ -51422,7 +51423,7 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B215" s="0" t="n">
         <v>0</v>
@@ -51487,7 +51488,7 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B216" s="0" t="n">
         <v>0</v>
@@ -51552,7 +51553,7 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B217" s="0" t="n">
         <v>0</v>
@@ -51617,7 +51618,7 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B218" s="0" t="n">
         <v>0</v>
@@ -51682,7 +51683,7 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B219" s="0" t="n">
         <v>0</v>
@@ -51747,7 +51748,7 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B220" s="0" t="n">
         <v>0</v>
@@ -51812,7 +51813,7 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B221" s="0" t="n">
         <v>0</v>
@@ -51877,7 +51878,7 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B222" s="0" t="n">
         <v>0</v>
@@ -51942,7 +51943,7 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B223" s="0" t="n">
         <v>0</v>
@@ -52007,7 +52008,7 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B224" s="0" t="n">
         <v>0</v>
@@ -52072,7 +52073,7 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B225" s="0" t="n">
         <v>0</v>
@@ -52137,7 +52138,7 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B226" s="0" t="n">
         <v>0</v>
@@ -52202,7 +52203,7 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B227" s="0" t="n">
         <v>0</v>
@@ -52267,7 +52268,7 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B228" s="0" t="n">
         <v>0</v>
@@ -52332,7 +52333,7 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B229" s="0" t="n">
         <v>0</v>
@@ -52397,7 +52398,7 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B230" s="0" t="n">
         <v>0</v>
@@ -52462,7 +52463,7 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B231" s="0" t="n">
         <v>0</v>
@@ -52527,7 +52528,7 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B232" s="0" t="n">
         <v>0</v>
@@ -52592,7 +52593,7 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B233" s="0" t="n">
         <v>0</v>
@@ -52657,7 +52658,7 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B234" s="0" t="n">
         <v>0</v>
@@ -52722,7 +52723,7 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B235" s="0" t="n">
         <v>0</v>
@@ -52787,7 +52788,7 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B236" s="0" t="n">
         <v>0</v>
@@ -52850,9 +52851,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B237" s="0" t="n">
         <v>0</v>
@@ -52917,7 +52918,7 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B238" s="0" t="n">
         <v>0</v>
@@ -52982,7 +52983,7 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B239" s="0" t="n">
         <v>0</v>
@@ -53047,7 +53048,7 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B240" s="0" t="n">
         <v>1</v>
@@ -53112,7 +53113,7 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B241" s="0" t="n">
         <v>0</v>
@@ -53177,7 +53178,7 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B242" s="0" t="n">
         <v>0</v>
@@ -53242,7 +53243,7 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B243" s="0" t="n">
         <v>0</v>
@@ -53307,7 +53308,7 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B244" s="0" t="n">
         <v>0</v>
@@ -53372,7 +53373,7 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B245" s="0" t="n">
         <v>0</v>
@@ -53437,7 +53438,7 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B246" s="0" t="n">
         <v>0</v>
@@ -53502,7 +53503,7 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B247" s="0" t="n">
         <v>0</v>
@@ -53567,7 +53568,7 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B248" s="0" t="n">
         <v>0</v>
@@ -53632,7 +53633,7 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B249" s="0" t="n">
         <v>0</v>
@@ -53697,7 +53698,7 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B250" s="0" t="n">
         <v>0</v>
@@ -53762,7 +53763,7 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B251" s="0" t="n">
         <v>0</v>
@@ -53827,7 +53828,7 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B252" s="0" t="n">
         <v>0</v>
@@ -53892,7 +53893,7 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B253" s="0" t="n">
         <v>0</v>
@@ -53957,7 +53958,7 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B254" s="0" t="n">
         <v>0</v>
@@ -54022,7 +54023,7 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B255" s="0" t="n">
         <v>0</v>
@@ -54087,7 +54088,7 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B256" s="0" t="n">
         <v>0</v>
@@ -54152,7 +54153,7 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B257" s="0" t="n">
         <v>0</v>
@@ -54217,7 +54218,7 @@
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B258" s="0" t="n">
         <v>0</v>
@@ -54282,7 +54283,7 @@
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B259" s="0" t="n">
         <v>0</v>
@@ -54347,7 +54348,7 @@
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B260" s="0" t="n">
         <v>0</v>
@@ -54412,7 +54413,7 @@
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B261" s="0" t="n">
         <v>1</v>
@@ -54477,7 +54478,7 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B262" s="0" t="n">
         <v>0</v>
@@ -54542,7 +54543,7 @@
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B263" s="0" t="n">
         <v>0</v>
@@ -54607,7 +54608,7 @@
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B264" s="0" t="n">
         <v>0</v>
@@ -54672,7 +54673,7 @@
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B265" s="0" t="n">
         <v>0</v>
@@ -54737,7 +54738,7 @@
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B266" s="0" t="n">
         <v>1</v>
@@ -54802,7 +54803,7 @@
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B267" s="0" t="n">
         <v>1</v>
@@ -54867,7 +54868,7 @@
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B268" s="0" t="n">
         <v>0</v>
@@ -54932,7 +54933,7 @@
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B269" s="0" t="n">
         <v>1</v>
@@ -54997,7 +54998,7 @@
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B270" s="0" t="n">
         <v>0</v>
@@ -55062,7 +55063,7 @@
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B271" s="0" t="n">
         <v>1</v>
@@ -55127,7 +55128,7 @@
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B272" s="0" t="n">
         <v>0</v>
@@ -55192,7 +55193,7 @@
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B273" s="0" t="n">
         <v>0</v>
@@ -55257,7 +55258,7 @@
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B274" s="0" t="n">
         <v>0</v>
@@ -55322,7 +55323,7 @@
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B275" s="0" t="n">
         <v>0</v>
@@ -55387,7 +55388,7 @@
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B276" s="0" t="n">
         <v>0</v>
@@ -55452,7 +55453,7 @@
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B277" s="0" t="n">
         <v>0</v>
@@ -55517,7 +55518,7 @@
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B278" s="0" t="n">
         <v>0</v>
@@ -55582,7 +55583,7 @@
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B279" s="0" t="n">
         <v>0</v>
@@ -55647,7 +55648,7 @@
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B280" s="0" t="n">
         <v>0</v>
@@ -55712,7 +55713,7 @@
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B281" s="0" t="n">
         <v>0</v>
@@ -55777,7 +55778,7 @@
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B282" s="0" t="n">
         <v>0</v>
@@ -55842,7 +55843,7 @@
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B283" s="0" t="n">
         <v>0</v>
@@ -55907,7 +55908,7 @@
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B284" s="0" t="n">
         <v>0</v>
@@ -55972,7 +55973,7 @@
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B285" s="0" t="n">
         <v>0</v>
@@ -56037,7 +56038,7 @@
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B286" s="0" t="n">
         <v>0</v>
@@ -56102,7 +56103,7 @@
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B287" s="0" t="n">
         <v>0</v>
@@ -56167,7 +56168,7 @@
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B288" s="0" t="n">
         <v>0</v>
@@ -56232,7 +56233,7 @@
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B289" s="0" t="n">
         <v>0</v>
@@ -56295,9 +56296,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B290" s="0" t="n">
         <v>0</v>
@@ -56362,7 +56363,7 @@
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B291" s="0" t="n">
         <v>1</v>
@@ -56427,7 +56428,7 @@
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B292" s="0" t="n">
         <v>0</v>
@@ -56492,7 +56493,7 @@
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B293" s="0" t="n">
         <v>0</v>
@@ -56557,7 +56558,7 @@
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B294" s="0" t="n">
         <v>1</v>
@@ -56622,7 +56623,7 @@
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B295" s="0" t="n">
         <v>1</v>
@@ -56687,7 +56688,7 @@
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B296" s="0" t="n">
         <v>0</v>
@@ -56752,7 +56753,7 @@
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B297" s="0" t="n">
         <v>0</v>
@@ -56817,7 +56818,7 @@
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B298" s="0" t="n">
         <v>0</v>
@@ -56882,7 +56883,7 @@
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B299" s="0" t="n">
         <v>0</v>
@@ -56947,7 +56948,7 @@
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B300" s="0" t="n">
         <v>1</v>
@@ -57012,7 +57013,7 @@
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B301" s="0" t="n">
         <v>0</v>
@@ -57077,7 +57078,7 @@
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B302" s="0" t="n">
         <v>1</v>
@@ -57142,7 +57143,7 @@
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B303" s="0" t="n">
         <v>0</v>
@@ -57207,7 +57208,7 @@
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B304" s="0" t="n">
         <v>0</v>
@@ -57272,7 +57273,7 @@
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B305" s="0" t="n">
         <v>0</v>
@@ -57337,7 +57338,7 @@
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B306" s="0" t="n">
         <v>1</v>
@@ -57402,7 +57403,7 @@
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B307" s="0" t="n">
         <v>1</v>
@@ -57467,7 +57468,7 @@
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B308" s="0" t="n">
         <v>1</v>
@@ -57532,7 +57533,7 @@
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B309" s="0" t="n">
         <v>0</v>
@@ -57597,7 +57598,7 @@
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B310" s="0" t="n">
         <v>0</v>
@@ -57662,7 +57663,7 @@
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B311" s="0" t="n">
         <v>0</v>
@@ -57727,7 +57728,7 @@
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B312" s="0" t="n">
         <v>0</v>
@@ -57792,7 +57793,7 @@
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B313" s="0" t="n">
         <v>0</v>
@@ -57855,9 +57856,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B314" s="0" t="n">
         <v>0</v>
@@ -57922,7 +57923,7 @@
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B315" s="0" t="n">
         <v>0</v>
@@ -57985,9 +57986,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B316" s="0" t="n">
         <v>1</v>
@@ -58052,7 +58053,7 @@
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B317" s="0" t="n">
         <v>0</v>
@@ -58117,7 +58118,7 @@
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B318" s="0" t="n">
         <v>1</v>
@@ -58182,7 +58183,7 @@
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B319" s="0" t="n">
         <v>1</v>
@@ -58247,7 +58248,7 @@
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B320" s="0" t="n">
         <v>0</v>
@@ -58312,7 +58313,7 @@
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B321" s="0" t="n">
         <v>0</v>
@@ -58377,7 +58378,7 @@
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B322" s="0" t="n">
         <v>0</v>
@@ -58442,7 +58443,7 @@
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B323" s="0" t="n">
         <v>0</v>
@@ -58507,7 +58508,7 @@
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B324" s="0" t="n">
         <v>0</v>
@@ -58572,7 +58573,7 @@
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B325" s="0" t="n">
         <v>1</v>
@@ -58637,7 +58638,7 @@
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B326" s="0" t="n">
         <v>0</v>
@@ -58702,7 +58703,7 @@
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B327" s="0" t="n">
         <v>0</v>
@@ -58767,7 +58768,7 @@
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B328" s="0" t="n">
         <v>0</v>
@@ -58832,7 +58833,7 @@
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B329" s="0" t="n">
         <v>0</v>
@@ -58897,7 +58898,7 @@
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B330" s="0" t="n">
         <v>0</v>
@@ -58962,7 +58963,7 @@
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B331" s="0" t="n">
         <v>0</v>
@@ -59027,7 +59028,7 @@
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B332" s="0" t="n">
         <v>0</v>
@@ -59092,7 +59093,7 @@
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B333" s="0" t="n">
         <v>0</v>
@@ -59157,7 +59158,7 @@
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B334" s="0" t="n">
         <v>0</v>
@@ -59220,9 +59221,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B335" s="0" t="n">
         <v>0</v>
@@ -59287,7 +59288,7 @@
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B336" s="0" t="n">
         <v>0</v>
@@ -59352,7 +59353,7 @@
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B337" s="0" t="n">
         <v>0</v>
@@ -59417,7 +59418,7 @@
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B338" s="0" t="n">
         <v>0</v>
@@ -59482,7 +59483,7 @@
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B339" s="0" t="n">
         <v>0</v>
@@ -59547,7 +59548,7 @@
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B340" s="0" t="n">
         <v>0</v>
@@ -59612,7 +59613,7 @@
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B341" s="0" t="n">
         <v>0</v>
@@ -59677,7 +59678,7 @@
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B342" s="0" t="n">
         <v>0</v>
@@ -59742,7 +59743,7 @@
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B343" s="0" t="n">
         <v>0</v>
@@ -59807,7 +59808,7 @@
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B344" s="0" t="n">
         <v>0</v>
@@ -59872,7 +59873,7 @@
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B345" s="0" t="n">
         <v>0</v>
@@ -59937,7 +59938,7 @@
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B346" s="0" t="n">
         <v>0</v>
@@ -60002,7 +60003,7 @@
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B347" s="0" t="n">
         <v>0</v>
@@ -60067,7 +60068,7 @@
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B348" s="0" t="n">
         <v>0</v>
@@ -60132,7 +60133,7 @@
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B349" s="0" t="n">
         <v>0</v>
@@ -60197,7 +60198,7 @@
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B350" s="0" t="n">
         <v>0</v>
@@ -60262,7 +60263,7 @@
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B351" s="0" t="n">
         <v>0</v>
@@ -60327,7 +60328,7 @@
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B352" s="0" t="n">
         <v>0</v>
@@ -60392,7 +60393,7 @@
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B353" s="0" t="n">
         <v>0</v>
@@ -60457,7 +60458,7 @@
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B354" s="0" t="n">
         <v>0</v>
@@ -60522,7 +60523,7 @@
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B355" s="0" t="n">
         <v>0</v>
@@ -60587,7 +60588,7 @@
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B356" s="0" t="n">
         <v>0</v>
@@ -60652,7 +60653,7 @@
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B357" s="0" t="n">
         <v>0</v>
@@ -60717,7 +60718,7 @@
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B358" s="0" t="n">
         <v>0</v>
@@ -60782,7 +60783,7 @@
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B359" s="0" t="n">
         <v>0</v>
@@ -60847,7 +60848,7 @@
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B360" s="0" t="n">
         <v>0</v>
@@ -60912,7 +60913,7 @@
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B361" s="0" t="n">
         <v>0</v>
@@ -60977,7 +60978,7 @@
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B362" s="0" t="n">
         <v>0</v>
@@ -61042,7 +61043,7 @@
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B363" s="0" t="n">
         <v>1</v>
@@ -61107,7 +61108,7 @@
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B364" s="0" t="n">
         <v>0</v>
@@ -61172,7 +61173,7 @@
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B365" s="0" t="n">
         <v>1</v>
@@ -61237,7 +61238,7 @@
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B366" s="0" t="n">
         <v>0</v>
@@ -61302,7 +61303,7 @@
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B367" s="0" t="n">
         <v>0</v>
@@ -61367,7 +61368,7 @@
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B368" s="0" t="n">
         <v>0</v>
@@ -61432,7 +61433,7 @@
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B369" s="0" t="n">
         <v>0</v>
@@ -61497,7 +61498,7 @@
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B370" s="0" t="n">
         <v>0</v>
@@ -61562,7 +61563,7 @@
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B371" s="0" t="n">
         <v>0</v>
@@ -61627,7 +61628,7 @@
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B372" s="0" t="n">
         <v>0</v>
@@ -61692,7 +61693,7 @@
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B373" s="0" t="n">
         <v>0</v>
@@ -61757,7 +61758,7 @@
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B374" s="0" t="n">
         <v>0</v>
@@ -61822,7 +61823,7 @@
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B375" s="0" t="n">
         <v>0</v>
@@ -61887,7 +61888,7 @@
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B376" s="0" t="n">
         <v>0</v>
@@ -61952,7 +61953,7 @@
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B377" s="0" t="n">
         <v>0</v>
@@ -62017,7 +62018,7 @@
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B378" s="0" t="n">
         <v>0</v>
@@ -62082,7 +62083,7 @@
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B379" s="0" t="n">
         <v>0</v>
@@ -62147,7 +62148,7 @@
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B380" s="0" t="n">
         <v>0</v>
@@ -62210,9 +62211,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B381" s="0" t="n">
         <v>0</v>
@@ -62277,7 +62278,7 @@
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B382" s="0" t="n">
         <v>0</v>
@@ -62342,7 +62343,7 @@
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B383" s="0" t="n">
         <v>0</v>
@@ -62407,7 +62408,7 @@
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B384" s="0" t="n">
         <v>0</v>
@@ -62472,7 +62473,7 @@
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B385" s="0" t="n">
         <v>0</v>
@@ -62535,9 +62536,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B386" s="0" t="n">
         <v>0</v>
@@ -62602,7 +62603,7 @@
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B387" s="0" t="n">
         <v>0</v>
@@ -62667,7 +62668,7 @@
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B388" s="0" t="n">
         <v>0</v>
@@ -62732,7 +62733,7 @@
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B389" s="0" t="n">
         <v>0</v>
@@ -62797,7 +62798,7 @@
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B390" s="0" t="n">
         <v>0</v>
@@ -62862,7 +62863,7 @@
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B391" s="0" t="n">
         <v>0</v>
@@ -62927,7 +62928,7 @@
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B392" s="0" t="n">
         <v>0</v>
@@ -62992,7 +62993,7 @@
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B393" s="0" t="n">
         <v>0</v>
@@ -63057,7 +63058,7 @@
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B394" s="0" t="n">
         <v>0</v>
@@ -63122,7 +63123,7 @@
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B395" s="0" t="n">
         <v>0</v>
@@ -63187,7 +63188,7 @@
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B396" s="0" t="n">
         <v>0</v>
@@ -63252,7 +63253,7 @@
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B397" s="0" t="n">
         <v>0</v>
@@ -63317,7 +63318,7 @@
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B398" s="0" t="n">
         <v>1</v>
@@ -63382,7 +63383,7 @@
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B399" s="0" t="n">
         <v>0</v>
@@ -63447,7 +63448,7 @@
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B400" s="0" t="n">
         <v>0</v>
@@ -63512,7 +63513,7 @@
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B401" s="0" t="n">
         <v>0</v>
@@ -63577,7 +63578,7 @@
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B402" s="0" t="n">
         <v>0</v>
@@ -63642,7 +63643,7 @@
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B403" s="0" t="n">
         <v>0</v>
@@ -63707,7 +63708,7 @@
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B404" s="0" t="n">
         <v>0</v>
@@ -63772,7 +63773,7 @@
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B405" s="0" t="n">
         <v>0</v>
@@ -63837,7 +63838,7 @@
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B406" s="0" t="n">
         <v>0</v>
@@ -63902,7 +63903,7 @@
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B407" s="0" t="n">
         <v>1</v>
@@ -63967,7 +63968,7 @@
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B408" s="0" t="n">
         <v>0</v>
@@ -64032,7 +64033,7 @@
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B409" s="0" t="n">
         <v>0</v>
@@ -64095,9 +64096,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B410" s="0" t="n">
         <v>0</v>
@@ -64162,7 +64163,7 @@
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B411" s="0" t="n">
         <v>0</v>
@@ -64227,7 +64228,7 @@
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B412" s="0" t="n">
         <v>0</v>
@@ -64292,7 +64293,7 @@
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B413" s="0" t="n">
         <v>0</v>
@@ -64357,7 +64358,7 @@
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B414" s="0" t="n">
         <v>0</v>
@@ -64422,7 +64423,7 @@
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B415" s="0" t="n">
         <v>0</v>
@@ -64487,7 +64488,7 @@
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B416" s="0" t="n">
         <v>0</v>
@@ -64552,7 +64553,7 @@
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B417" s="0" t="n">
         <v>1</v>
@@ -64617,7 +64618,7 @@
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B418" s="0" t="n">
         <v>1</v>
@@ -64682,7 +64683,7 @@
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B419" s="0" t="n">
         <v>1</v>
@@ -64747,7 +64748,7 @@
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B420" s="0" t="n">
         <v>1</v>
@@ -64812,7 +64813,7 @@
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B421" s="0" t="n">
         <v>0</v>
@@ -64877,7 +64878,7 @@
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B422" s="0" t="n">
         <v>0</v>
@@ -64940,9 +64941,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B423" s="0" t="n">
         <v>0</v>
@@ -65007,7 +65008,7 @@
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B424" s="0" t="n">
         <v>0</v>
@@ -65072,7 +65073,7 @@
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B425" s="0" t="n">
         <v>0</v>
@@ -65137,7 +65138,7 @@
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B426" s="0" t="n">
         <v>1</v>
@@ -65202,7 +65203,7 @@
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B427" s="0" t="n">
         <v>0</v>
@@ -65267,7 +65268,7 @@
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B428" s="0" t="n">
         <v>0</v>
@@ -65332,7 +65333,7 @@
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B429" s="0" t="n">
         <v>1</v>
@@ -65397,7 +65398,7 @@
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B430" s="0" t="n">
         <v>1</v>
@@ -65462,7 +65463,7 @@
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B431" s="0" t="n">
         <v>1</v>
@@ -65527,7 +65528,7 @@
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B432" s="0" t="n">
         <v>1</v>
@@ -65592,7 +65593,7 @@
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B433" s="0" t="n">
         <v>1</v>
@@ -65657,7 +65658,7 @@
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B434" s="0" t="n">
         <v>1</v>
@@ -65722,7 +65723,7 @@
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B435" s="0" t="n">
         <v>1</v>
@@ -65787,7 +65788,7 @@
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B436" s="0" t="n">
         <v>0</v>
@@ -65852,7 +65853,7 @@
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B437" s="0" t="n">
         <v>0</v>
@@ -65917,7 +65918,7 @@
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B438" s="0" t="n">
         <v>1</v>
@@ -65982,7 +65983,7 @@
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B439" s="0" t="n">
         <v>0</v>
@@ -66047,7 +66048,7 @@
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B440" s="0" t="n">
         <v>0</v>
@@ -66112,7 +66113,7 @@
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B441" s="0" t="n">
         <v>0</v>
@@ -66177,7 +66178,7 @@
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B442" s="0" t="n">
         <v>0</v>
@@ -66242,7 +66243,7 @@
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B443" s="0" t="n">
         <v>1</v>
@@ -66307,7 +66308,7 @@
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B444" s="0" t="n">
         <v>1</v>
@@ -66372,7 +66373,7 @@
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B445" s="0" t="n">
         <v>1</v>
@@ -66437,7 +66438,7 @@
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B446" s="0" t="n">
         <v>1</v>
@@ -66502,7 +66503,7 @@
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B447" s="0" t="n">
         <v>0</v>
@@ -66567,7 +66568,7 @@
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B448" s="0" t="n">
         <v>0</v>
@@ -66632,7 +66633,7 @@
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B449" s="0" t="n">
         <v>0</v>
@@ -66697,7 +66698,7 @@
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B450" s="0" t="n">
         <v>0</v>
@@ -66762,7 +66763,7 @@
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B451" s="0" t="n">
         <v>0</v>
@@ -66825,9 +66826,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B452" s="0" t="n">
         <v>0</v>
@@ -66890,9 +66891,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B453" s="0" t="n">
         <v>0</v>
@@ -66955,9 +66956,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B454" s="0" t="n">
         <v>0</v>
@@ -67022,7 +67023,7 @@
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B455" s="0" t="n">
         <v>0</v>
@@ -67087,7 +67088,7 @@
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B456" s="0" t="n">
         <v>0</v>
@@ -67152,7 +67153,7 @@
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B457" s="0" t="n">
         <v>0</v>
@@ -67217,7 +67218,7 @@
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B458" s="0" t="n">
         <v>0</v>
@@ -67282,7 +67283,7 @@
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B459" s="0" t="n">
         <v>0</v>
@@ -67347,7 +67348,7 @@
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B460" s="0" t="n">
         <v>1</v>
@@ -67412,7 +67413,7 @@
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B461" s="0" t="n">
         <v>1</v>
@@ -67477,7 +67478,7 @@
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B462" s="0" t="n">
         <v>1</v>
@@ -67542,7 +67543,7 @@
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B463" s="0" t="n">
         <v>1</v>
@@ -67607,7 +67608,7 @@
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B464" s="0" t="n">
         <v>1</v>
@@ -67672,7 +67673,7 @@
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B465" s="0" t="n">
         <v>1</v>
@@ -67737,7 +67738,7 @@
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B466" s="0" t="n">
         <v>1</v>
@@ -67802,7 +67803,7 @@
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B467" s="0" t="n">
         <v>1</v>
@@ -67867,7 +67868,7 @@
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B468" s="0" t="n">
         <v>1</v>
@@ -67932,7 +67933,7 @@
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B469" s="0" t="n">
         <v>1</v>
@@ -67997,7 +67998,7 @@
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B470" s="0" t="n">
         <v>1</v>
@@ -68062,7 +68063,7 @@
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B471" s="0" t="n">
         <v>1</v>
@@ -68127,7 +68128,7 @@
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B472" s="0" t="n">
         <v>1</v>
@@ -68192,7 +68193,7 @@
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B473" s="0" t="n">
         <v>1</v>
@@ -68257,7 +68258,7 @@
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B474" s="0" t="n">
         <v>1</v>
@@ -68322,7 +68323,7 @@
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B475" s="0" t="n">
         <v>1</v>
@@ -68387,7 +68388,7 @@
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B476" s="0" t="n">
         <v>1</v>
@@ -68452,7 +68453,7 @@
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B477" s="0" t="n">
         <v>1</v>
@@ -68517,7 +68518,7 @@
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B478" s="0" t="n">
         <v>1</v>
@@ -68582,7 +68583,7 @@
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B479" s="0" t="n">
         <v>1</v>
@@ -68647,7 +68648,7 @@
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B480" s="0" t="n">
         <v>1</v>
@@ -68712,7 +68713,7 @@
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B481" s="0" t="n">
         <v>1</v>
@@ -68777,7 +68778,7 @@
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B482" s="0" t="n">
         <v>1</v>
@@ -68842,7 +68843,7 @@
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B483" s="0" t="n">
         <v>0</v>
@@ -68907,7 +68908,7 @@
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B484" s="0" t="n">
         <v>1</v>
@@ -68972,7 +68973,7 @@
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B485" s="0" t="n">
         <v>1</v>
@@ -69037,7 +69038,7 @@
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B486" s="0" t="n">
         <v>1</v>
@@ -69102,7 +69103,7 @@
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B487" s="0" t="n">
         <v>0</v>
@@ -69167,7 +69168,7 @@
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B488" s="0" t="n">
         <v>0</v>
@@ -69232,7 +69233,7 @@
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B489" s="0" t="n">
         <v>0</v>
@@ -69295,9 +69296,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="490" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B490" s="0" t="n">
         <v>1</v>
@@ -69360,9 +69361,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="491" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B491" s="0" t="n">
         <v>1</v>
@@ -69427,7 +69428,7 @@
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B492" s="0" t="n">
         <v>0</v>
@@ -69492,7 +69493,7 @@
     </row>
     <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B493" s="0" t="n">
         <v>1</v>
@@ -69557,7 +69558,7 @@
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B494" s="0" t="n">
         <v>1</v>
@@ -69622,7 +69623,7 @@
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B495" s="0" t="n">
         <v>1</v>
@@ -69687,7 +69688,7 @@
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B496" s="0" t="n">
         <v>0</v>
@@ -69752,7 +69753,7 @@
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B497" s="0" t="n">
         <v>0</v>
@@ -69817,7 +69818,7 @@
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B498" s="0" t="n">
         <v>0</v>
@@ -69882,7 +69883,7 @@
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B499" s="0" t="n">
         <v>0</v>
@@ -69947,7 +69948,7 @@
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B500" s="0" t="n">
         <v>1</v>
@@ -70012,7 +70013,7 @@
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B501" s="0" t="n">
         <v>0</v>
@@ -70077,7 +70078,7 @@
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B502" s="0" t="n">
         <v>0</v>
@@ -70142,7 +70143,7 @@
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B503" s="0" t="n">
         <v>0</v>
@@ -70207,7 +70208,7 @@
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B504" s="0" t="n">
         <v>1</v>
@@ -70272,7 +70273,7 @@
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B505" s="0" t="n">
         <v>1</v>
@@ -70337,7 +70338,7 @@
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B506" s="0" t="n">
         <v>0</v>
@@ -70402,7 +70403,7 @@
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B507" s="0" t="n">
         <v>0</v>
@@ -70467,7 +70468,7 @@
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B508" s="0" t="n">
         <v>0</v>
@@ -70532,7 +70533,7 @@
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B509" s="0" t="n">
         <v>0</v>
@@ -70597,7 +70598,7 @@
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B510" s="0" t="n">
         <v>0</v>
@@ -70662,7 +70663,7 @@
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B511" s="0" t="n">
         <v>0</v>
@@ -70727,7 +70728,7 @@
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B512" s="0" t="n">
         <v>0</v>
@@ -70792,7 +70793,7 @@
     </row>
     <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B513" s="0" t="n">
         <v>0</v>
@@ -70857,7 +70858,7 @@
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B514" s="0" t="n">
         <v>0</v>
@@ -70922,7 +70923,7 @@
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B515" s="0" t="n">
         <v>1</v>
@@ -70987,7 +70988,7 @@
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B516" s="0" t="n">
         <v>1</v>
@@ -71052,7 +71053,7 @@
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B517" s="0" t="n">
         <v>0</v>
@@ -71117,7 +71118,7 @@
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B518" s="0" t="n">
         <v>1</v>
@@ -71182,7 +71183,7 @@
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B519" s="0" t="n">
         <v>0</v>
@@ -71247,7 +71248,7 @@
     </row>
     <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B520" s="0" t="n">
         <v>0</v>
@@ -71312,7 +71313,7 @@
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B521" s="0" t="n">
         <v>0</v>
@@ -71377,7 +71378,7 @@
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B522" s="0" t="n">
         <v>0</v>
@@ -71442,7 +71443,7 @@
     </row>
     <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B523" s="0" t="n">
         <v>0</v>
@@ -71507,7 +71508,7 @@
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B524" s="0" t="n">
         <v>1</v>
@@ -71572,7 +71573,7 @@
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B525" s="0" t="n">
         <v>1</v>
@@ -71637,7 +71638,7 @@
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B526" s="0" t="n">
         <v>1</v>
@@ -71702,7 +71703,7 @@
     </row>
     <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B527" s="0" t="n">
         <v>0</v>
@@ -71767,7 +71768,7 @@
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B528" s="0" t="n">
         <v>0</v>
@@ -71832,7 +71833,7 @@
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B529" s="0" t="n">
         <v>0</v>
@@ -71897,7 +71898,7 @@
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B530" s="0" t="n">
         <v>0</v>
@@ -71962,7 +71963,7 @@
     </row>
     <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B531" s="0" t="n">
         <v>1</v>
@@ -72025,9 +72026,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="532" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B532" s="0" t="n">
         <v>1</v>
@@ -72092,7 +72093,7 @@
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B533" s="0" t="n">
         <v>1</v>
@@ -72157,7 +72158,7 @@
     </row>
     <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B534" s="0" t="n">
         <v>1</v>
@@ -72222,7 +72223,7 @@
     </row>
     <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B535" s="0" t="n">
         <v>1</v>
@@ -72287,7 +72288,7 @@
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B536" s="0" t="n">
         <v>0</v>
@@ -72352,7 +72353,7 @@
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B537" s="0" t="n">
         <v>1</v>
@@ -72417,7 +72418,7 @@
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B538" s="0" t="n">
         <v>0</v>
@@ -72482,7 +72483,7 @@
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B539" s="0" t="n">
         <v>1</v>
@@ -72547,7 +72548,7 @@
     </row>
     <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B540" s="0" t="n">
         <v>1</v>
@@ -72612,7 +72613,7 @@
     </row>
     <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B541" s="0" t="n">
         <v>1</v>
@@ -72677,7 +72678,7 @@
     </row>
     <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B542" s="0" t="n">
         <v>1</v>
@@ -72742,7 +72743,7 @@
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B543" s="0" t="n">
         <v>0</v>
@@ -72807,7 +72808,7 @@
     </row>
     <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B544" s="0" t="n">
         <v>0</v>
@@ -72872,7 +72873,7 @@
     </row>
     <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B545" s="0" t="n">
         <v>0</v>
@@ -72937,7 +72938,7 @@
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B546" s="0" t="n">
         <v>0</v>
@@ -73002,7 +73003,7 @@
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B547" s="0" t="n">
         <v>0</v>
@@ -73067,7 +73068,7 @@
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B548" s="0" t="n">
         <v>0</v>
@@ -73132,7 +73133,7 @@
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B549" s="0" t="n">
         <v>0</v>
@@ -73197,7 +73198,7 @@
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B550" s="0" t="n">
         <v>0</v>
@@ -73262,7 +73263,7 @@
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B551" s="0" t="n">
         <v>1</v>
@@ -73327,7 +73328,7 @@
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B552" s="0" t="n">
         <v>0</v>
@@ -73392,7 +73393,7 @@
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B553" s="0" t="n">
         <v>0</v>
@@ -73457,7 +73458,7 @@
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B554" s="0" t="n">
         <v>0</v>
@@ -73522,7 +73523,7 @@
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B555" s="0" t="n">
         <v>0</v>
@@ -73587,7 +73588,7 @@
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B556" s="0" t="n">
         <v>0</v>
@@ -73652,7 +73653,7 @@
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B557" s="0" t="n">
         <v>0</v>
@@ -73717,7 +73718,7 @@
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B558" s="0" t="n">
         <v>0</v>
@@ -73782,7 +73783,7 @@
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B559" s="0" t="n">
         <v>1</v>
@@ -73847,7 +73848,7 @@
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B560" s="0" t="n">
         <v>1</v>
@@ -73912,7 +73913,7 @@
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B561" s="0" t="n">
         <v>0</v>
@@ -73977,7 +73978,7 @@
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B562" s="0" t="n">
         <v>0</v>
@@ -74042,7 +74043,7 @@
     </row>
     <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B563" s="0" t="n">
         <v>0</v>
@@ -74107,7 +74108,7 @@
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B564" s="0" t="n">
         <v>0</v>
@@ -74172,7 +74173,7 @@
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B565" s="0" t="n">
         <v>0</v>
@@ -74237,7 +74238,7 @@
     </row>
     <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B566" s="0" t="n">
         <v>1</v>
@@ -74302,7 +74303,7 @@
     </row>
     <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B567" s="0" t="n">
         <v>1</v>
@@ -74367,7 +74368,7 @@
     </row>
     <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B568" s="0" t="n">
         <v>1</v>
@@ -74432,7 +74433,7 @@
     </row>
     <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B569" s="0" t="n">
         <v>0</v>
@@ -74497,7 +74498,7 @@
     </row>
     <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B570" s="0" t="n">
         <v>0</v>
@@ -74562,7 +74563,7 @@
     </row>
     <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B571" s="0" t="n">
         <v>0</v>
@@ -74627,7 +74628,7 @@
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B572" s="0" t="n">
         <v>0</v>
@@ -74692,7 +74693,7 @@
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B573" s="0" t="n">
         <v>0</v>
@@ -74757,7 +74758,7 @@
     </row>
     <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B574" s="0" t="n">
         <v>0</v>
@@ -74822,7 +74823,7 @@
     </row>
     <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B575" s="0" t="n">
         <v>0</v>
@@ -74887,7 +74888,7 @@
     </row>
     <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B576" s="0" t="n">
         <v>0</v>
@@ -74952,7 +74953,7 @@
     </row>
     <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B577" s="0" t="n">
         <v>0</v>
@@ -75017,7 +75018,7 @@
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B578" s="0" t="n">
         <v>0</v>
@@ -75082,7 +75083,7 @@
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B579" s="0" t="n">
         <v>0</v>
@@ -75146,7 +75147,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U579"/>
+  <autoFilter ref="A1:U579">
+    <filterColumn colId="13">
+      <customFilters and="true">
+        <customFilter operator="equal" val="0"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -75176,21 +75183,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B1" s="6" t="n">
         <v>329</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B2" s="9" t="n">
         <v>233</v>
@@ -75199,12 +75206,12 @@
         <v>0</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B3" s="9" t="n">
         <v>8</v>
@@ -75213,7 +75220,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -75227,12 +75234,12 @@
         <v>2</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B5" s="9" t="n">
         <v>2</v>
@@ -75241,12 +75248,12 @@
         <v>3</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B6" s="9" t="n">
         <v>1</v>
@@ -75255,12 +75262,12 @@
         <v>4</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B7" s="9" t="n">
         <v>1</v>
@@ -75269,12 +75276,12 @@
         <v>5</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B8" s="12" t="n">
         <v>1</v>
@@ -75283,7 +75290,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -75291,7 +75298,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -75299,7 +75306,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -75307,7 +75314,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -75315,7 +75322,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -75323,7 +75330,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -75331,7 +75338,7 @@
         <v>13</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -75339,7 +75346,7 @@
         <v>14</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -75347,7 +75354,7 @@
         <v>15</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -75355,7 +75362,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
